--- a/test/resources/definitionsFiles/fe-automation-definition-v06_collection_view.xlsx
+++ b/test/resources/definitionsFiles/fe-automation-definition-v06_collection_view.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dev/Documents/Definition Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\moj\ccd-case-management-web\test\resources\definitionsFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D20DE1-33C2-714F-93F5-B71EFA31DE27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32EAA6C-00A4-4C3B-ACC4-C6E63CBF16FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8840" yWindow="2360" windowWidth="28800" windowHeight="16440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" tabRatio="683" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="507">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1609,6 +1609,39 @@
   </si>
   <si>
     <t>Collection of complex type</t>
+  </si>
+  <si>
+    <t>AddressLine4</t>
+  </si>
+  <si>
+    <t>AddressLine5</t>
+  </si>
+  <si>
+    <t>Address Line 4</t>
+  </si>
+  <si>
+    <t>Address Line 5</t>
+  </si>
+  <si>
+    <t>AddressLine3="showline4"</t>
+  </si>
+  <si>
+    <t>AddressLine3="showline4" AND AddressLine4="showline5"</t>
+  </si>
+  <si>
+    <t>AddressComplex1</t>
+  </si>
+  <si>
+    <t>Address Complex</t>
+  </si>
+  <si>
+    <t>ConditionalPage3</t>
+  </si>
+  <si>
+    <t>Conditional Page 3</t>
+  </si>
+  <si>
+    <t>TextField3="showpage3"</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1652,7 @@
     <numFmt numFmtId="164" formatCode="&quot;DD/&quot;mm&quot;/YYYY&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;D/&quot;m&quot;/YY&quot;"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -1884,7 +1917,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1960,6 +1993,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2060,7 +2111,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2223,6 +2274,20 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="26" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="23" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3391,18 +3456,18 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.83203125" style="1" customWidth="1"/>
-    <col min="11" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.17578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.3515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.17578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.8203125" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.8203125" style="1" customWidth="1"/>
+    <col min="11" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3487,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="57.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3444,7 +3509,7 @@
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -3466,7 +3531,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -3486,7 +3551,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3498,7 +3563,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3510,7 +3575,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3522,7 +3587,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3534,7 +3599,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3546,7 +3611,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3569,33 +3634,33 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="22.64453125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="24.64453125" style="22" customWidth="1"/>
     <col min="4" max="4" width="21" style="22" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="19.3515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.17578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22.46875" style="22" customWidth="1"/>
+    <col min="8" max="8" width="19.64453125" style="22" customWidth="1"/>
     <col min="9" max="9" width="40" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.83203125" style="22" customWidth="1"/>
+    <col min="10" max="11" width="17.8203125" style="22" customWidth="1"/>
     <col min="12" max="13" width="22" style="22" customWidth="1"/>
     <col min="14" max="14" width="22" style="145" customWidth="1"/>
-    <col min="15" max="15" width="42.5" style="22" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" style="22" customWidth="1"/>
-    <col min="17" max="29" width="8.83203125" style="22" customWidth="1"/>
-    <col min="30" max="257" width="8.83203125" customWidth="1"/>
+    <col min="15" max="15" width="42.46875" style="22" customWidth="1"/>
+    <col min="16" max="16" width="28.3515625" style="22" customWidth="1"/>
+    <col min="17" max="29" width="8.8203125" style="22" customWidth="1"/>
+    <col min="30" max="257" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
@@ -3634,7 +3699,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:29" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" ht="68.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3695,7 +3760,7 @@
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
     </row>
-    <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" ht="18" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -3758,7 +3823,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="4" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -3809,7 +3874,7 @@
       <c r="AB4" s="7"/>
       <c r="AC4" s="7"/>
     </row>
-    <row r="5" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:29" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -3860,7 +3925,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:29" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -3911,7 +3976,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:29" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -3962,7 +4027,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:29" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -4013,7 +4078,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:29" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -4064,7 +4129,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:29" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -4115,7 +4180,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:29" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -4166,7 +4231,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:29" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -4217,7 +4282,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="13" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:29" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -4268,7 +4333,7 @@
       <c r="AB13" s="7"/>
       <c r="AC13" s="7"/>
     </row>
-    <row r="14" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:29" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -4319,7 +4384,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:29" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -4370,7 +4435,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:29" ht="13.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -4421,7 +4486,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:30" ht="13.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -4472,7 +4537,7 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:30" ht="13.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -4523,7 +4588,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:30" ht="13.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -4574,7 +4639,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
     </row>
-    <row r="20" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:30" ht="13.75" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -4625,7 +4690,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:30" ht="13.75" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -4676,7 +4741,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:30" ht="13.75" customHeight="1">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -4727,7 +4792,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
     </row>
-    <row r="23" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:30" ht="13.75" customHeight="1">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -4778,7 +4843,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:30" s="102" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:30" s="102" customFormat="1" ht="13.75" customHeight="1">
       <c r="A24" s="104">
         <v>42736</v>
       </c>
@@ -4829,7 +4894,7 @@
       <c r="AB24" s="107"/>
       <c r="AC24" s="107"/>
     </row>
-    <row r="25" spans="1:30" s="102" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:30" s="102" customFormat="1" ht="13.75" customHeight="1">
       <c r="A25" s="104">
         <v>42736</v>
       </c>
@@ -4880,7 +4945,7 @@
       <c r="AB25" s="107"/>
       <c r="AC25" s="107"/>
     </row>
-    <row r="26" spans="1:30" s="144" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" s="144" customFormat="1" ht="13.75" customHeight="1">
       <c r="A26" s="136">
         <v>42736</v>
       </c>
@@ -4933,7 +4998,7 @@
       <c r="AC26" s="142"/>
       <c r="AD26" s="142"/>
     </row>
-    <row r="27" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:30" ht="13.75" customHeight="1">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -4984,7 +5049,7 @@
       <c r="AB27" s="7"/>
       <c r="AC27" s="7"/>
     </row>
-    <row r="28" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:30" ht="13.75" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -5035,7 +5100,7 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
     </row>
-    <row r="29" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:30" ht="13.75" customHeight="1">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -5086,7 +5151,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:30" ht="13.75" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -5137,7 +5202,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:30" ht="13.75" customHeight="1">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -5188,7 +5253,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:30" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:30" ht="13.75" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -5239,7 +5304,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:29" ht="13.75" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -5290,7 +5355,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:29" ht="13.75" customHeight="1">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -5341,7 +5406,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:29" ht="13.25" customHeight="1">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -5392,7 +5457,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:29" ht="13.25" customHeight="1">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -5443,7 +5508,7 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:29" ht="13.75" customHeight="1">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
@@ -5494,7 +5559,7 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:29" ht="13.75" customHeight="1">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -5545,7 +5610,7 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:29" ht="13.75" customHeight="1">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -5596,7 +5661,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:29" ht="13.25" customHeight="1">
       <c r="A40" s="10">
         <v>42736</v>
       </c>
@@ -5647,7 +5712,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:29" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:29" ht="13.25" customHeight="1">
       <c r="A41" s="10">
         <v>42736</v>
       </c>
@@ -5698,7 +5763,7 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="42" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:29" ht="13.75" customHeight="1">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
@@ -5749,7 +5814,7 @@
       <c r="AB42" s="7"/>
       <c r="AC42" s="7"/>
     </row>
-    <row r="43" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:29" ht="13.75" customHeight="1">
       <c r="A43" s="10">
         <v>42736</v>
       </c>
@@ -5800,7 +5865,7 @@
       <c r="AB43" s="7"/>
       <c r="AC43" s="7"/>
     </row>
-    <row r="44" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:29" ht="13.75" customHeight="1">
       <c r="A44" s="10">
         <v>42736</v>
       </c>
@@ -5853,7 +5918,7 @@
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
     </row>
-    <row r="45" spans="1:29" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:29" ht="13.75" customHeight="1">
       <c r="A45" s="10">
         <v>42736</v>
       </c>
@@ -5904,6 +5969,59 @@
       <c r="AA45" s="7"/>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
+    </row>
+    <row r="46" spans="1:29" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A46" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="D46" s="156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="158" t="s">
+        <v>502</v>
+      </c>
+      <c r="F46" s="159">
+        <v>1</v>
+      </c>
+      <c r="G46" s="156" t="s">
+        <v>346</v>
+      </c>
+      <c r="H46" s="158" t="s">
+        <v>504</v>
+      </c>
+      <c r="I46" s="158" t="s">
+        <v>505</v>
+      </c>
+      <c r="J46" s="160">
+        <v>3</v>
+      </c>
+      <c r="K46" s="157"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="161" t="s">
+        <v>506</v>
+      </c>
+      <c r="N46" s="157"/>
+      <c r="O46" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="P46" s="157"/>
+      <c r="Q46" s="157"/>
+      <c r="R46" s="157"/>
+      <c r="S46" s="157"/>
+      <c r="T46" s="157"/>
+      <c r="U46" s="157"/>
+      <c r="V46" s="157"/>
+      <c r="W46" s="157"/>
+      <c r="X46" s="157"/>
+      <c r="Y46" s="157"/>
+      <c r="Z46" s="157"/>
+      <c r="AA46" s="157"/>
+      <c r="AB46" s="157"/>
+      <c r="AC46" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -5922,18 +6040,18 @@
       <selection activeCell="C4" sqref="C4:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="24" customWidth="1"/>
-    <col min="7" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.8203125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="29.8203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.8203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.17578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.3515625" style="24" customWidth="1"/>
+    <col min="7" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>221</v>
       </c>
@@ -5949,7 +6067,7 @@
       <c r="E1" s="28"/>
       <c r="F1" s="28"/>
     </row>
-    <row r="2" spans="1:6" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -5969,7 +6087,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -5989,7 +6107,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="29">
         <v>42736</v>
       </c>
@@ -6007,7 +6125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16" customHeight="1">
       <c r="A5" s="29">
         <v>42736</v>
       </c>
@@ -6025,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="29">
         <v>42736</v>
       </c>
@@ -6043,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="29">
         <v>42736</v>
       </c>
@@ -6061,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="29">
         <v>42736</v>
       </c>
@@ -6079,7 +6197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="29">
         <v>42736</v>
       </c>
@@ -6097,7 +6215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="29">
         <v>42736</v>
       </c>
@@ -6115,7 +6233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13.25" customHeight="1">
       <c r="A11" s="29">
         <v>42736</v>
       </c>
@@ -6133,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="13.25" customHeight="1">
       <c r="A12" s="29">
         <v>42736</v>
       </c>
@@ -6151,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="13.25" customHeight="1">
       <c r="A13" s="29">
         <v>42736</v>
       </c>
@@ -6169,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="13.25" customHeight="1">
       <c r="A14" s="29">
         <v>42736</v>
       </c>
@@ -6187,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="13.25" customHeight="1">
       <c r="A15" s="29">
         <v>42736</v>
       </c>
@@ -6205,7 +6323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="13.25" customHeight="1">
       <c r="A16" s="29">
         <v>42736</v>
       </c>
@@ -6223,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="13.25" customHeight="1">
       <c r="A17" s="29">
         <v>42736</v>
       </c>
@@ -6241,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="13.25" customHeight="1">
       <c r="A18" s="29">
         <v>42736</v>
       </c>
@@ -6259,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="13.25" customHeight="1">
       <c r="A19" s="29">
         <v>42736</v>
       </c>
@@ -6277,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="13.25" customHeight="1">
       <c r="A20" s="29">
         <v>42736</v>
       </c>
@@ -6295,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="13.25" customHeight="1">
       <c r="A21" s="29">
         <v>42736</v>
       </c>
@@ -6313,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="13.25" customHeight="1">
       <c r="A22" s="29">
         <v>42736</v>
       </c>
@@ -6331,7 +6449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="13.25" customHeight="1">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="19"/>
@@ -6339,7 +6457,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="13.25" customHeight="1">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="19"/>
@@ -6347,7 +6465,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="13.25" customHeight="1">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="19"/>
@@ -6355,7 +6473,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.25" customHeight="1">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="19"/>
@@ -6363,7 +6481,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.25" customHeight="1">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="58"/>
@@ -6371,7 +6489,7 @@
       <c r="E27" s="58"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.25" customHeight="1">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="19"/>
@@ -6379,7 +6497,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.25" customHeight="1">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="19"/>
@@ -6387,7 +6505,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.25" customHeight="1">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="19"/>
@@ -6395,7 +6513,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.25" customHeight="1">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="19"/>
@@ -6420,19 +6538,19 @@
       <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="30" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="30" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="30" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="30" customWidth="1"/>
-    <col min="7" max="11" width="8.83203125" style="30" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.46875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="18.17578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="19.3515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.64453125" style="30" customWidth="1"/>
+    <col min="7" max="11" width="8.8203125" style="30" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>225</v>
       </c>
@@ -6453,7 +6571,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="40" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -6478,7 +6596,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6503,7 +6621,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -6526,7 +6644,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -6549,7 +6667,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -6572,7 +6690,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -6595,7 +6713,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -6618,7 +6736,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -6641,7 +6759,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -6681,18 +6799,18 @@
       <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="33" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="33" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="33" customWidth="1"/>
-    <col min="7" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.8203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="29.8203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="19.8203125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.17578125" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.3515625" style="33" customWidth="1"/>
+    <col min="7" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>229</v>
       </c>
@@ -6708,7 +6826,7 @@
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
     </row>
-    <row r="2" spans="1:6" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -6728,7 +6846,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6748,7 +6866,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="17" customHeight="1">
       <c r="A4" s="29">
         <v>42736</v>
       </c>
@@ -6766,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1">
       <c r="A5" s="29">
         <v>42736</v>
       </c>
@@ -6784,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1">
       <c r="A6" s="29">
         <v>42736</v>
       </c>
@@ -6802,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="A7" s="29">
         <v>42736</v>
       </c>
@@ -6820,7 +6938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="A8" s="29">
         <v>42736</v>
       </c>
@@ -6838,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="17" customHeight="1">
       <c r="A9" s="29">
         <v>42736</v>
       </c>
@@ -6856,7 +6974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="17" customHeight="1">
       <c r="A10" s="29">
         <v>42736</v>
       </c>
@@ -6891,20 +7009,20 @@
       <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="37" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="37" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="37" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="34.46875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="37" customWidth="1"/>
+    <col min="3" max="3" width="20.3515625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="19.46875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="19.3515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.64453125" style="37" customWidth="1"/>
     <col min="7" max="7" width="17" style="37" customWidth="1"/>
-    <col min="8" max="11" width="8.83203125" style="37" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="8" max="11" width="8.8203125" style="37" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>230</v>
       </c>
@@ -6925,7 +7043,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -6950,7 +7068,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -6975,7 +7093,7 @@
       <c r="J3" s="28"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -6998,7 +7116,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -7021,7 +7139,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -7044,7 +7162,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -7067,7 +7185,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -7090,7 +7208,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -7113,7 +7231,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -7136,7 +7254,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -7159,7 +7277,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="22" spans="2:2" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" ht="13.25" customHeight="1">
       <c r="B22" s="8"/>
     </row>
   </sheetData>
@@ -7179,20 +7297,20 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="38" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="38" customWidth="1"/>
-    <col min="8" max="11" width="8.83203125" style="38" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.17578125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.8203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.3515625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="28.46875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="26.8203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="22.8203125" style="38" customWidth="1"/>
+    <col min="7" max="7" width="24.46875" style="38" customWidth="1"/>
+    <col min="8" max="11" width="8.8203125" style="38" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="25.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>231</v>
       </c>
@@ -7213,7 +7331,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="35.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -7236,7 +7354,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -7261,7 +7379,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -7286,7 +7404,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -7311,7 +7429,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -7324,7 +7442,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="19" spans="5:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:5" ht="13.25" customHeight="1">
       <c r="E19" s="42"/>
     </row>
   </sheetData>
@@ -7348,17 +7466,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="30.8203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="19.46875" style="39" customWidth="1"/>
+    <col min="3" max="3" width="27.3515625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="25.64453125" style="39" customWidth="1"/>
     <col min="5" max="5" width="28" style="39" customWidth="1"/>
-    <col min="6" max="256" width="8.83203125" customWidth="1"/>
+    <col min="6" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>239</v>
       </c>
@@ -7373,7 +7491,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -7390,7 +7508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -7407,7 +7525,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -7422,7 +7540,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -7437,7 +7555,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -7452,7 +7570,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -7467,7 +7585,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -7482,7 +7600,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -7497,7 +7615,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -7512,7 +7630,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -7538,24 +7656,24 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" style="40" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="40" customWidth="1"/>
-    <col min="6" max="11" width="14.5" style="40" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="27.3515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="40.8203125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="26.8203125" style="40" customWidth="1"/>
+    <col min="6" max="11" width="14.46875" style="40" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
@@ -7576,7 +7694,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -7601,7 +7719,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -7626,7 +7744,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -7649,7 +7767,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -7672,7 +7790,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -7695,7 +7813,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -7718,7 +7836,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -7741,7 +7859,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -7764,7 +7882,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -7787,7 +7905,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -7810,7 +7928,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -7833,7 +7951,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -7856,7 +7974,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -7879,7 +7997,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -7902,7 +8020,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -7925,7 +8043,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="14" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -7948,7 +8066,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="14" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -7971,7 +8089,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="13.25" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -7989,7 +8107,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" ht="13.25" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -8012,7 +8130,7 @@
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
     </row>
-    <row r="21" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" ht="13.25" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -8030,7 +8148,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="93" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" s="93" customFormat="1" ht="13.25" customHeight="1">
       <c r="A22" s="111">
         <v>42736</v>
       </c>
@@ -8053,7 +8171,7 @@
       <c r="J22" s="92"/>
       <c r="K22" s="92"/>
     </row>
-    <row r="23" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" ht="13.25" customHeight="1">
       <c r="A23" s="10">
         <v>42736</v>
       </c>
@@ -8076,7 +8194,7 @@
       <c r="J23" s="42"/>
       <c r="K23" s="42"/>
     </row>
-    <row r="24" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" ht="13" customHeight="1">
       <c r="A24" s="10">
         <v>42736</v>
       </c>
@@ -8099,7 +8217,7 @@
       <c r="J24" s="42"/>
       <c r="K24" s="42"/>
     </row>
-    <row r="25" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" ht="13.25" customHeight="1">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -8122,7 +8240,7 @@
       <c r="J25" s="42"/>
       <c r="K25" s="42"/>
     </row>
-    <row r="26" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" ht="13.25" customHeight="1">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -8145,7 +8263,7 @@
       <c r="J26" s="42"/>
       <c r="K26" s="42"/>
     </row>
-    <row r="27" spans="1:11" s="93" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="93" customFormat="1" ht="13.25" customHeight="1">
       <c r="A27" s="111">
         <v>42736</v>
       </c>
@@ -8168,7 +8286,7 @@
       <c r="J27" s="92"/>
       <c r="K27" s="92"/>
     </row>
-    <row r="28" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="13.75" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -8191,7 +8309,7 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="13.75" customHeight="1">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -8214,7 +8332,7 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" ht="13.75" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -8237,7 +8355,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" ht="13.75" customHeight="1">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -8260,7 +8378,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="13.75" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -8283,7 +8401,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="13.75" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -8306,7 +8424,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="13.75" customHeight="1">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -8329,7 +8447,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" ht="13.75" customHeight="1">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -8352,7 +8470,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" ht="13.75" customHeight="1">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -8375,7 +8493,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" ht="13.75" customHeight="1">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
@@ -8398,7 +8516,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" ht="13.75" customHeight="1">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -8421,7 +8539,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" ht="13.75" customHeight="1">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -8444,7 +8562,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A40" s="111">
         <v>42736</v>
       </c>
@@ -8467,7 +8585,7 @@
       <c r="J40" s="116"/>
       <c r="K40" s="116"/>
     </row>
-    <row r="41" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" ht="13.75" customHeight="1">
       <c r="A41" s="10">
         <v>42736</v>
       </c>
@@ -8490,7 +8608,7 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" ht="13.75" customHeight="1">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
@@ -8513,7 +8631,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" ht="13.75" customHeight="1">
       <c r="A43" s="10">
         <v>42736</v>
       </c>
@@ -8536,7 +8654,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" ht="13.75" customHeight="1">
       <c r="A44" s="10">
         <v>42736</v>
       </c>
@@ -8559,7 +8677,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A45" s="111">
         <v>42736</v>
       </c>
@@ -8582,7 +8700,7 @@
       <c r="J45" s="116"/>
       <c r="K45" s="116"/>
     </row>
-    <row r="46" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" ht="13.75" customHeight="1">
       <c r="A46" s="10">
         <v>42736</v>
       </c>
@@ -8605,7 +8723,7 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A47" s="111">
         <v>42736</v>
       </c>
@@ -8628,7 +8746,7 @@
       <c r="J47" s="116"/>
       <c r="K47" s="116"/>
     </row>
-    <row r="48" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" ht="13.75" customHeight="1">
       <c r="A48" s="10">
         <v>42736</v>
       </c>
@@ -8651,7 +8769,7 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11" ht="13.75" customHeight="1">
       <c r="A49" s="10">
         <v>42736</v>
       </c>
@@ -8674,7 +8792,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11" ht="13.75" customHeight="1">
       <c r="A50" s="10">
         <v>42736</v>
       </c>
@@ -8697,7 +8815,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11" ht="13.75" customHeight="1">
       <c r="A51" s="10">
         <v>42736</v>
       </c>
@@ -8720,9 +8838,32 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
+    <row r="52" spans="1:11" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A52" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B52" s="155"/>
+      <c r="C52" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="D52" s="158" t="s">
+        <v>502</v>
+      </c>
+      <c r="E52" s="154" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="156" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="156"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8737,12 +8878,12 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="4" width="28.83203125" customWidth="1"/>
+    <col min="1" max="4" width="28.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="17.7">
       <c r="A1" s="43" t="s">
         <v>253</v>
       </c>
@@ -8756,7 +8897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="47" t="s">
         <v>254</v>
       </c>
@@ -8770,7 +8911,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="48" t="s">
         <v>39</v>
       </c>
@@ -8784,7 +8925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="51" t="s">
         <v>397</v>
       </c>
@@ -8798,7 +8939,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="51" t="s">
         <v>397</v>
       </c>
@@ -8812,7 +8953,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="51" t="s">
         <v>397</v>
       </c>
@@ -8826,7 +8967,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="51" t="s">
         <v>397</v>
       </c>
@@ -8853,18 +8994,18 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" style="41" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="41" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="41" customWidth="1"/>
-    <col min="5" max="6" width="30.1640625" style="41" customWidth="1"/>
-    <col min="7" max="11" width="14.5" style="41" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.3515625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="18.64453125" style="41" customWidth="1"/>
+    <col min="5" max="6" width="30.17578125" style="41" customWidth="1"/>
+    <col min="7" max="11" width="14.46875" style="41" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>248</v>
       </c>
@@ -8885,7 +9026,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -8910,7 +9051,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -8935,7 +9076,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -8958,7 +9099,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -8981,7 +9122,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9004,7 +9145,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -9027,7 +9168,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9050,7 +9191,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1">
       <c r="A9" s="104">
         <v>42736</v>
       </c>
@@ -9073,7 +9214,7 @@
       <c r="J9" s="107"/>
       <c r="K9" s="107"/>
     </row>
-    <row r="10" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1">
       <c r="A10" s="104">
         <v>42736</v>
       </c>
@@ -9096,7 +9237,7 @@
       <c r="J10" s="107"/>
       <c r="K10" s="107"/>
     </row>
-    <row r="11" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="102" customFormat="1" ht="13.75" customHeight="1">
       <c r="A11" s="104">
         <v>42736</v>
       </c>
@@ -9119,7 +9260,7 @@
       <c r="J11" s="107"/>
       <c r="K11" s="107"/>
     </row>
-    <row r="12" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="14" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -9142,7 +9283,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="14" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -9165,7 +9306,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="14" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -9188,7 +9329,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="14" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -9211,7 +9352,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -9234,7 +9375,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" ht="13.25" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -9257,7 +9398,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="13.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -9280,7 +9421,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="13.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -9316,26 +9457,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="136" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.8203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="18" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="64.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.8203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="64.46875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3515625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.64453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="22" style="12" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="12" customWidth="1"/>
-    <col min="10" max="14" width="8.83203125" style="12" customWidth="1"/>
-    <col min="15" max="256" width="8.83203125" customWidth="1"/>
+    <col min="9" max="9" width="20.3515625" style="12" customWidth="1"/>
+    <col min="10" max="14" width="8.8203125" style="12" customWidth="1"/>
+    <col min="15" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -9359,7 +9500,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="68.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -9393,7 +9534,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9427,7 +9568,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9457,7 +9598,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9485,7 +9626,7 @@
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9513,7 +9654,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -9541,7 +9682,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9569,7 +9710,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -9597,7 +9738,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -9645,18 +9786,18 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="42" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="42" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="42" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="42" customWidth="1"/>
-    <col min="5" max="6" width="29.33203125" style="42" customWidth="1"/>
-    <col min="7" max="11" width="14.5" style="42" customWidth="1"/>
-    <col min="12" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="31.46875" style="42" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="42" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="42" customWidth="1"/>
+    <col min="4" max="4" width="18.64453125" style="42" customWidth="1"/>
+    <col min="5" max="6" width="29.3515625" style="42" customWidth="1"/>
+    <col min="7" max="11" width="14.46875" style="42" customWidth="1"/>
+    <col min="12" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>250</v>
       </c>
@@ -9677,7 +9818,7 @@
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
     </row>
-    <row r="2" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="65" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -9702,7 +9843,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
     </row>
-    <row r="3" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="13" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -9727,7 +9868,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -9750,7 +9891,7 @@
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -9773,7 +9914,7 @@
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="14" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -9796,7 +9937,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -9819,7 +9960,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -9842,7 +9983,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -9865,7 +10006,7 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -9888,7 +10029,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -9911,7 +10052,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -9934,7 +10075,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -9957,7 +10098,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -9991,29 +10132,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV52"/>
+  <dimension ref="A1:IV53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="41.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="40.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="14.46875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="29.8203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="41.46875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="40.8203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.8203125" style="14" customWidth="1"/>
     <col min="7" max="8" width="37" style="14" customWidth="1"/>
     <col min="9" max="9" width="24" style="14" customWidth="1"/>
     <col min="10" max="10" width="20" style="14" customWidth="1"/>
-    <col min="11" max="11" width="17.83203125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" style="14" customWidth="1"/>
-    <col min="13" max="256" width="8.83203125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="17.8203125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="16.8203125" style="14" customWidth="1"/>
+    <col min="13" max="256" width="8.8203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:256" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -10040,7 +10181,7 @@
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
     </row>
-    <row r="2" spans="1:256" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:256" ht="90.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -10083,7 +10224,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:256" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:256" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -10126,7 +10267,7 @@
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:256" ht="13.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -10157,7 +10298,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:256" ht="13.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -10188,7 +10329,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:256" ht="13.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -10219,7 +10360,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:256" ht="13.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -10250,7 +10391,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:256" ht="13.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -10281,7 +10422,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:256" ht="13.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -10312,7 +10453,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:256" ht="13.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -10343,7 +10484,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:256" ht="13.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -10376,7 +10517,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="13" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:256" ht="13.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -10409,7 +10550,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:256" ht="13.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -10440,7 +10581,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:256" ht="13.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -10471,7 +10612,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:256" ht="13.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -10741,7 +10882,7 @@
       <c r="IU16" s="42"/>
       <c r="IV16" s="42"/>
     </row>
-    <row r="17" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:256" ht="13.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -10774,7 +10915,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A18" s="87">
         <v>42736</v>
       </c>
@@ -11044,7 +11185,7 @@
       <c r="IU18" s="92"/>
       <c r="IV18" s="92"/>
     </row>
-    <row r="19" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:256" ht="13.75" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -11314,7 +11455,7 @@
       <c r="IU19" s="42"/>
       <c r="IV19" s="42"/>
     </row>
-    <row r="20" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:256" ht="14" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -11584,7 +11725,7 @@
       <c r="IU20" s="42"/>
       <c r="IV20" s="42"/>
     </row>
-    <row r="21" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:256" ht="14" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -11854,7 +11995,7 @@
       <c r="IU21" s="42"/>
       <c r="IV21" s="42"/>
     </row>
-    <row r="22" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:256" ht="14" customHeight="1">
       <c r="A22" s="10">
         <v>42736</v>
       </c>
@@ -12124,7 +12265,7 @@
       <c r="IU22" s="42"/>
       <c r="IV22" s="42"/>
     </row>
-    <row r="23" spans="1:256" s="93" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:256" s="93" customFormat="1" ht="13.25" customHeight="1">
       <c r="A23" s="87">
         <v>42736</v>
       </c>
@@ -12394,7 +12535,7 @@
       <c r="IU23" s="92"/>
       <c r="IV23" s="92"/>
     </row>
-    <row r="24" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:256" ht="14" customHeight="1">
       <c r="A24" s="10">
         <v>42736</v>
       </c>
@@ -12664,7 +12805,7 @@
       <c r="IU24" s="42"/>
       <c r="IV24" s="42"/>
     </row>
-    <row r="25" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:256" ht="14" customHeight="1">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -12934,7 +13075,7 @@
       <c r="IU25" s="42"/>
       <c r="IV25" s="42"/>
     </row>
-    <row r="26" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:256" ht="14" customHeight="1">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -13206,7 +13347,7 @@
       <c r="IU26" s="42"/>
       <c r="IV26" s="42"/>
     </row>
-    <row r="27" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A27" s="87">
         <v>42736</v>
       </c>
@@ -13476,7 +13617,7 @@
       <c r="IU27" s="92"/>
       <c r="IV27" s="92"/>
     </row>
-    <row r="28" spans="1:256" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:256" s="102" customFormat="1" ht="13.25" customHeight="1">
       <c r="A28" s="94">
         <v>42736</v>
       </c>
@@ -13746,7 +13887,7 @@
       <c r="IU28" s="98"/>
       <c r="IV28" s="98"/>
     </row>
-    <row r="29" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:256" ht="14" customHeight="1">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -14018,7 +14159,7 @@
       <c r="IU29" s="42"/>
       <c r="IV29" s="42"/>
     </row>
-    <row r="30" spans="1:256" s="144" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:256" s="144" customFormat="1" ht="13.75" customHeight="1">
       <c r="A30" s="136">
         <v>42736</v>
       </c>
@@ -14290,7 +14431,7 @@
       <c r="IU30" s="145"/>
       <c r="IV30" s="145"/>
     </row>
-    <row r="31" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:256" ht="13.75" customHeight="1">
       <c r="A31" s="10">
         <v>42736</v>
       </c>
@@ -14560,7 +14701,7 @@
       <c r="IU31" s="42"/>
       <c r="IV31" s="42"/>
     </row>
-    <row r="32" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:256" ht="13.75" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -14830,7 +14971,7 @@
       <c r="IU32" s="42"/>
       <c r="IV32" s="42"/>
     </row>
-    <row r="33" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:256" ht="13.75" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -15100,7 +15241,7 @@
       <c r="IU33" s="42"/>
       <c r="IV33" s="42"/>
     </row>
-    <row r="34" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:256" ht="13.75" customHeight="1">
       <c r="A34" s="10">
         <v>42736</v>
       </c>
@@ -15370,7 +15511,7 @@
       <c r="IU34" s="42"/>
       <c r="IV34" s="42"/>
     </row>
-    <row r="35" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:256" ht="13.75" customHeight="1">
       <c r="A35" s="10">
         <v>42736</v>
       </c>
@@ -15640,7 +15781,7 @@
       <c r="IU35" s="42"/>
       <c r="IV35" s="42"/>
     </row>
-    <row r="36" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:256" ht="13.75" customHeight="1">
       <c r="A36" s="10">
         <v>42736</v>
       </c>
@@ -15910,7 +16051,7 @@
       <c r="IU36" s="42"/>
       <c r="IV36" s="42"/>
     </row>
-    <row r="37" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:256" ht="13.75" customHeight="1">
       <c r="A37" s="10">
         <v>42736</v>
       </c>
@@ -16180,7 +16321,7 @@
       <c r="IU37" s="42"/>
       <c r="IV37" s="42"/>
     </row>
-    <row r="38" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:256" ht="13.75" customHeight="1">
       <c r="A38" s="10">
         <v>42736</v>
       </c>
@@ -16452,7 +16593,7 @@
       <c r="IU38" s="42"/>
       <c r="IV38" s="42"/>
     </row>
-    <row r="39" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:256" ht="14" customHeight="1">
       <c r="A39" s="10">
         <v>42736</v>
       </c>
@@ -16724,7 +16865,7 @@
       <c r="IU39" s="42"/>
       <c r="IV39" s="42"/>
     </row>
-    <row r="40" spans="1:256" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:256" ht="14" customHeight="1">
       <c r="A40" s="10">
         <v>42736</v>
       </c>
@@ -16994,7 +17135,7 @@
       <c r="IU40" s="42"/>
       <c r="IV40" s="42"/>
     </row>
-    <row r="41" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A41" s="87">
         <v>42736</v>
       </c>
@@ -17264,7 +17405,7 @@
       <c r="IU41" s="92"/>
       <c r="IV41" s="92"/>
     </row>
-    <row r="42" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:256" ht="13.75" customHeight="1">
       <c r="A42" s="10">
         <v>42736</v>
       </c>
@@ -17534,7 +17675,7 @@
       <c r="IU42" s="42"/>
       <c r="IV42" s="42"/>
     </row>
-    <row r="43" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:256" ht="13.75" customHeight="1">
       <c r="A43" s="10">
         <v>42736</v>
       </c>
@@ -17804,7 +17945,7 @@
       <c r="IU43" s="42"/>
       <c r="IV43" s="42"/>
     </row>
-    <row r="44" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:256" ht="13.75" customHeight="1">
       <c r="A44" s="10">
         <v>42736</v>
       </c>
@@ -18074,7 +18215,7 @@
       <c r="IU44" s="42"/>
       <c r="IV44" s="42"/>
     </row>
-    <row r="45" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:256" ht="13.75" customHeight="1">
       <c r="A45" s="10">
         <v>42736</v>
       </c>
@@ -18344,7 +18485,7 @@
       <c r="IU45" s="42"/>
       <c r="IV45" s="42"/>
     </row>
-    <row r="46" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A46" s="87">
         <v>42736</v>
       </c>
@@ -18614,7 +18755,7 @@
       <c r="IU46" s="92"/>
       <c r="IV46" s="92"/>
     </row>
-    <row r="47" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:256" ht="13.75" customHeight="1">
       <c r="A47" s="10">
         <v>42736</v>
       </c>
@@ -18886,7 +19027,7 @@
       <c r="IU47" s="42"/>
       <c r="IV47" s="42"/>
     </row>
-    <row r="48" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A48" s="87">
         <v>42736</v>
       </c>
@@ -19156,7 +19297,7 @@
       <c r="IU48" s="92"/>
       <c r="IV48" s="92"/>
     </row>
-    <row r="49" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:256" ht="13.75" customHeight="1">
       <c r="A49" s="10">
         <v>42736</v>
       </c>
@@ -19426,7 +19567,7 @@
       <c r="IU49" s="42"/>
       <c r="IV49" s="42"/>
     </row>
-    <row r="50" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:256" ht="13.75" customHeight="1">
       <c r="A50" s="10">
         <v>42736</v>
       </c>
@@ -19696,7 +19837,7 @@
       <c r="IU50" s="42"/>
       <c r="IV50" s="42"/>
     </row>
-    <row r="51" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:256" ht="13.75" customHeight="1">
       <c r="A51" s="10">
         <v>42736</v>
       </c>
@@ -19966,7 +20107,7 @@
       <c r="IU51" s="42"/>
       <c r="IV51" s="42"/>
     </row>
-    <row r="52" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:256" s="93" customFormat="1" ht="13.75" customHeight="1">
       <c r="A52" s="87">
         <v>42736</v>
       </c>
@@ -20236,6 +20377,276 @@
       <c r="IU52" s="92"/>
       <c r="IV52" s="92"/>
     </row>
+    <row r="53" spans="1:256" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A53" s="148">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="149"/>
+      <c r="C53" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="151" t="s">
+        <v>502</v>
+      </c>
+      <c r="E53" s="151" t="s">
+        <v>503</v>
+      </c>
+      <c r="F53" s="152"/>
+      <c r="G53" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
+      <c r="M53" s="152"/>
+      <c r="N53" s="152"/>
+      <c r="O53" s="152"/>
+      <c r="P53" s="152"/>
+      <c r="Q53" s="152"/>
+      <c r="R53" s="153"/>
+      <c r="S53" s="153"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="153"/>
+      <c r="V53" s="153"/>
+      <c r="W53" s="153"/>
+      <c r="X53" s="153"/>
+      <c r="Y53" s="153"/>
+      <c r="Z53" s="153"/>
+      <c r="AA53" s="153"/>
+      <c r="AB53" s="153"/>
+      <c r="AC53" s="153"/>
+      <c r="AD53" s="153"/>
+      <c r="AE53" s="153"/>
+      <c r="AF53" s="153"/>
+      <c r="AG53" s="153"/>
+      <c r="AH53" s="153"/>
+      <c r="AI53" s="153"/>
+      <c r="AJ53" s="153"/>
+      <c r="AK53" s="153"/>
+      <c r="AL53" s="153"/>
+      <c r="AM53" s="153"/>
+      <c r="AN53" s="153"/>
+      <c r="AO53" s="153"/>
+      <c r="AP53" s="153"/>
+      <c r="AQ53" s="153"/>
+      <c r="AR53" s="153"/>
+      <c r="AS53" s="153"/>
+      <c r="AT53" s="153"/>
+      <c r="AU53" s="153"/>
+      <c r="AV53" s="153"/>
+      <c r="AW53" s="153"/>
+      <c r="AX53" s="153"/>
+      <c r="AY53" s="153"/>
+      <c r="AZ53" s="153"/>
+      <c r="BA53" s="153"/>
+      <c r="BB53" s="153"/>
+      <c r="BC53" s="153"/>
+      <c r="BD53" s="153"/>
+      <c r="BE53" s="153"/>
+      <c r="BF53" s="153"/>
+      <c r="BG53" s="153"/>
+      <c r="BH53" s="153"/>
+      <c r="BI53" s="153"/>
+      <c r="BJ53" s="153"/>
+      <c r="BK53" s="153"/>
+      <c r="BL53" s="153"/>
+      <c r="BM53" s="153"/>
+      <c r="BN53" s="153"/>
+      <c r="BO53" s="153"/>
+      <c r="BP53" s="153"/>
+      <c r="BQ53" s="153"/>
+      <c r="BR53" s="153"/>
+      <c r="BS53" s="153"/>
+      <c r="BT53" s="153"/>
+      <c r="BU53" s="153"/>
+      <c r="BV53" s="153"/>
+      <c r="BW53" s="153"/>
+      <c r="BX53" s="153"/>
+      <c r="BY53" s="153"/>
+      <c r="BZ53" s="153"/>
+      <c r="CA53" s="153"/>
+      <c r="CB53" s="153"/>
+      <c r="CC53" s="153"/>
+      <c r="CD53" s="153"/>
+      <c r="CE53" s="153"/>
+      <c r="CF53" s="153"/>
+      <c r="CG53" s="153"/>
+      <c r="CH53" s="153"/>
+      <c r="CI53" s="153"/>
+      <c r="CJ53" s="153"/>
+      <c r="CK53" s="153"/>
+      <c r="CL53" s="153"/>
+      <c r="CM53" s="153"/>
+      <c r="CN53" s="153"/>
+      <c r="CO53" s="153"/>
+      <c r="CP53" s="153"/>
+      <c r="CQ53" s="153"/>
+      <c r="CR53" s="153"/>
+      <c r="CS53" s="153"/>
+      <c r="CT53" s="153"/>
+      <c r="CU53" s="153"/>
+      <c r="CV53" s="153"/>
+      <c r="CW53" s="153"/>
+      <c r="CX53" s="153"/>
+      <c r="CY53" s="153"/>
+      <c r="CZ53" s="153"/>
+      <c r="DA53" s="153"/>
+      <c r="DB53" s="153"/>
+      <c r="DC53" s="153"/>
+      <c r="DD53" s="153"/>
+      <c r="DE53" s="153"/>
+      <c r="DF53" s="153"/>
+      <c r="DG53" s="153"/>
+      <c r="DH53" s="153"/>
+      <c r="DI53" s="153"/>
+      <c r="DJ53" s="153"/>
+      <c r="DK53" s="153"/>
+      <c r="DL53" s="153"/>
+      <c r="DM53" s="153"/>
+      <c r="DN53" s="153"/>
+      <c r="DO53" s="153"/>
+      <c r="DP53" s="153"/>
+      <c r="DQ53" s="153"/>
+      <c r="DR53" s="153"/>
+      <c r="DS53" s="153"/>
+      <c r="DT53" s="153"/>
+      <c r="DU53" s="153"/>
+      <c r="DV53" s="153"/>
+      <c r="DW53" s="153"/>
+      <c r="DX53" s="153"/>
+      <c r="DY53" s="153"/>
+      <c r="DZ53" s="153"/>
+      <c r="EA53" s="153"/>
+      <c r="EB53" s="153"/>
+      <c r="EC53" s="153"/>
+      <c r="ED53" s="153"/>
+      <c r="EE53" s="153"/>
+      <c r="EF53" s="153"/>
+      <c r="EG53" s="153"/>
+      <c r="EH53" s="153"/>
+      <c r="EI53" s="153"/>
+      <c r="EJ53" s="153"/>
+      <c r="EK53" s="153"/>
+      <c r="EL53" s="153"/>
+      <c r="EM53" s="153"/>
+      <c r="EN53" s="153"/>
+      <c r="EO53" s="153"/>
+      <c r="EP53" s="153"/>
+      <c r="EQ53" s="153"/>
+      <c r="ER53" s="153"/>
+      <c r="ES53" s="153"/>
+      <c r="ET53" s="153"/>
+      <c r="EU53" s="153"/>
+      <c r="EV53" s="153"/>
+      <c r="EW53" s="153"/>
+      <c r="EX53" s="153"/>
+      <c r="EY53" s="153"/>
+      <c r="EZ53" s="153"/>
+      <c r="FA53" s="153"/>
+      <c r="FB53" s="153"/>
+      <c r="FC53" s="153"/>
+      <c r="FD53" s="153"/>
+      <c r="FE53" s="153"/>
+      <c r="FF53" s="153"/>
+      <c r="FG53" s="153"/>
+      <c r="FH53" s="153"/>
+      <c r="FI53" s="153"/>
+      <c r="FJ53" s="153"/>
+      <c r="FK53" s="153"/>
+      <c r="FL53" s="153"/>
+      <c r="FM53" s="153"/>
+      <c r="FN53" s="153"/>
+      <c r="FO53" s="153"/>
+      <c r="FP53" s="153"/>
+      <c r="FQ53" s="153"/>
+      <c r="FR53" s="153"/>
+      <c r="FS53" s="153"/>
+      <c r="FT53" s="153"/>
+      <c r="FU53" s="153"/>
+      <c r="FV53" s="153"/>
+      <c r="FW53" s="153"/>
+      <c r="FX53" s="153"/>
+      <c r="FY53" s="153"/>
+      <c r="FZ53" s="153"/>
+      <c r="GA53" s="153"/>
+      <c r="GB53" s="153"/>
+      <c r="GC53" s="153"/>
+      <c r="GD53" s="153"/>
+      <c r="GE53" s="153"/>
+      <c r="GF53" s="153"/>
+      <c r="GG53" s="153"/>
+      <c r="GH53" s="153"/>
+      <c r="GI53" s="153"/>
+      <c r="GJ53" s="153"/>
+      <c r="GK53" s="153"/>
+      <c r="GL53" s="153"/>
+      <c r="GM53" s="153"/>
+      <c r="GN53" s="153"/>
+      <c r="GO53" s="153"/>
+      <c r="GP53" s="153"/>
+      <c r="GQ53" s="153"/>
+      <c r="GR53" s="153"/>
+      <c r="GS53" s="153"/>
+      <c r="GT53" s="153"/>
+      <c r="GU53" s="153"/>
+      <c r="GV53" s="153"/>
+      <c r="GW53" s="153"/>
+      <c r="GX53" s="153"/>
+      <c r="GY53" s="153"/>
+      <c r="GZ53" s="153"/>
+      <c r="HA53" s="153"/>
+      <c r="HB53" s="153"/>
+      <c r="HC53" s="153"/>
+      <c r="HD53" s="153"/>
+      <c r="HE53" s="153"/>
+      <c r="HF53" s="153"/>
+      <c r="HG53" s="153"/>
+      <c r="HH53" s="153"/>
+      <c r="HI53" s="153"/>
+      <c r="HJ53" s="153"/>
+      <c r="HK53" s="153"/>
+      <c r="HL53" s="153"/>
+      <c r="HM53" s="153"/>
+      <c r="HN53" s="153"/>
+      <c r="HO53" s="153"/>
+      <c r="HP53" s="153"/>
+      <c r="HQ53" s="153"/>
+      <c r="HR53" s="153"/>
+      <c r="HS53" s="153"/>
+      <c r="HT53" s="153"/>
+      <c r="HU53" s="153"/>
+      <c r="HV53" s="153"/>
+      <c r="HW53" s="153"/>
+      <c r="HX53" s="153"/>
+      <c r="HY53" s="153"/>
+      <c r="HZ53" s="153"/>
+      <c r="IA53" s="153"/>
+      <c r="IB53" s="153"/>
+      <c r="IC53" s="153"/>
+      <c r="ID53" s="153"/>
+      <c r="IE53" s="153"/>
+      <c r="IF53" s="153"/>
+      <c r="IG53" s="153"/>
+      <c r="IH53" s="153"/>
+      <c r="II53" s="153"/>
+      <c r="IJ53" s="153"/>
+      <c r="IK53" s="153"/>
+      <c r="IL53" s="153"/>
+      <c r="IM53" s="153"/>
+      <c r="IN53" s="153"/>
+      <c r="IO53" s="153"/>
+      <c r="IP53" s="153"/>
+      <c r="IQ53" s="153"/>
+      <c r="IR53" s="153"/>
+      <c r="IS53" s="153"/>
+      <c r="IT53" s="153"/>
+      <c r="IU53" s="153"/>
+      <c r="IV53" s="153"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -20247,32 +20658,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="21.64453125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="13.64453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="26.17578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.64453125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="31.8203125" style="16" customWidth="1"/>
     <col min="7" max="7" width="28" style="16" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="16" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="16" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="18.83203125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="17.1640625" style="16" customWidth="1"/>
-    <col min="14" max="18" width="8.83203125" style="16" customWidth="1"/>
-    <col min="19" max="256" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.46875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="22.8203125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="11.3515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="20.64453125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="18.8203125" style="16" customWidth="1"/>
+    <col min="13" max="13" width="17.17578125" style="16" customWidth="1"/>
+    <col min="14" max="18" width="8.8203125" style="16" customWidth="1"/>
+    <col min="19" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>90</v>
       </c>
@@ -20300,7 +20711,7 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="123.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -20346,7 +20757,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -20392,7 +20803,7 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -20424,7 +20835,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -20456,7 +20867,7 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -20488,93 +20899,97 @@
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:18" s="154" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A7" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="155"/>
+      <c r="C7" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="156" t="s">
+        <v>496</v>
+      </c>
+      <c r="E7" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8" t="s">
+      <c r="F7" s="157"/>
+      <c r="G7" s="156" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="156" t="s">
+        <v>500</v>
+      </c>
+      <c r="I7" s="157"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="157"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="157"/>
+      <c r="R7" s="157"/>
+    </row>
+    <row r="8" spans="1:18" s="154" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A8" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="156" t="s">
+        <v>497</v>
+      </c>
+      <c r="E8" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8" t="s">
+      <c r="F8" s="157"/>
+      <c r="G8" s="156" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="156" t="s">
+        <v>501</v>
+      </c>
+      <c r="I8" s="157"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="157"/>
+      <c r="R8" s="157"/>
+    </row>
+    <row r="9" spans="1:18" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="8" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -20584,7 +20999,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -20593,20 +21008,20 @@
         <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
@@ -20616,7 +21031,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="12.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -20625,20 +21040,20 @@
         <v>65</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
@@ -20648,7 +21063,7 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" ht="12.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -20657,20 +21072,20 @@
         <v>65</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
@@ -20680,7 +21095,7 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" ht="12.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -20689,20 +21104,20 @@
         <v>65</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
@@ -20712,29 +21127,29 @@
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="8" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
@@ -20744,29 +21159,29 @@
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
@@ -20776,13 +21191,13 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" ht="12.75" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
@@ -20808,13 +21223,13 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>115</v>
@@ -20830,7 +21245,7 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="8" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -20840,7 +21255,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" ht="12.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -20849,20 +21264,20 @@
         <v>119</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="8" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
@@ -20872,29 +21287,29 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" ht="12.7">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D19" s="57" t="s">
-        <v>299</v>
+        <v>119</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="8" t="s">
-        <v>298</v>
+        <v>116</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -20904,31 +21319,29 @@
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" ht="12.7">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>301</v>
+        <v>119</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>304</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="8" t="s">
-        <v>302</v>
+        <v>118</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -20938,7 +21351,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" ht="14" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -20946,15 +21359,15 @@
       <c r="C21" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>300</v>
+      <c r="D21" s="57" t="s">
+        <v>299</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="7"/>
@@ -20970,87 +21383,89 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="105" t="s">
+    <row r="22" spans="1:18" ht="14" customHeight="1">
+      <c r="A22" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="106" t="s">
+      <c r="D22" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+    </row>
+    <row r="23" spans="1:18" ht="14" customHeight="1">
+      <c r="A23" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
+      <c r="A24" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="E22" s="106" t="s">
+      <c r="E24" s="106" t="s">
         <v>430</v>
-      </c>
-      <c r="F22" s="107"/>
-      <c r="G22" s="106" t="s">
-        <v>431</v>
-      </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-    </row>
-    <row r="23" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="D23" s="106" t="s">
-        <v>462</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="106" t="s">
-        <v>447</v>
-      </c>
-      <c r="H23" s="105"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-    </row>
-    <row r="24" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="D24" s="106" t="s">
-        <v>444</v>
-      </c>
-      <c r="E24" s="106" t="s">
-        <v>52</v>
       </c>
       <c r="F24" s="107"/>
       <c r="G24" s="106" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="H24" s="105"/>
       <c r="I24" s="107"/>
@@ -21066,7 +21481,7 @@
       <c r="Q24" s="107"/>
       <c r="R24" s="107"/>
     </row>
-    <row r="25" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="104">
         <v>42736</v>
       </c>
@@ -21075,14 +21490,14 @@
         <v>297</v>
       </c>
       <c r="D25" s="106" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>441</v>
+        <v>52</v>
       </c>
       <c r="F25" s="107"/>
       <c r="G25" s="106" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H25" s="105"/>
       <c r="I25" s="107"/>
@@ -21098,71 +21513,71 @@
       <c r="Q25" s="107"/>
       <c r="R25" s="107"/>
     </row>
-    <row r="26" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8" t="s">
+    <row r="26" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
+      <c r="A26" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B26" s="104"/>
+      <c r="C26" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D26" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="107"/>
+      <c r="G26" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10">
-        <v>42736</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8" t="s">
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="107"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+    </row>
+    <row r="27" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
+      <c r="A27" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B27" s="104"/>
+      <c r="C27" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="106" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>441</v>
+      </c>
+      <c r="F27" s="107"/>
+      <c r="G27" s="106" t="s">
+        <v>448</v>
+      </c>
+      <c r="H27" s="105"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="1:18" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="107"/>
+      <c r="Q27" s="107"/>
+      <c r="R27" s="107"/>
+    </row>
+    <row r="28" spans="1:18" ht="13" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -21171,14 +21586,14 @@
         <v>287</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="7"/>
@@ -21194,7 +21609,7 @@
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" ht="12.75" customHeight="1">
       <c r="A29" s="10">
         <v>42736</v>
       </c>
@@ -21203,14 +21618,14 @@
         <v>287</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="7"/>
@@ -21226,25 +21641,23 @@
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" ht="13" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>296</v>
+      <c r="D30" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>319</v>
+        <v>48</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="7"/>
@@ -21260,169 +21673,235 @@
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="106" t="s">
+    <row r="31" spans="1:18" ht="14" customHeight="1">
+      <c r="A31" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+    </row>
+    <row r="32" spans="1:18" ht="14" customHeight="1">
+      <c r="A32" s="10">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+    </row>
+    <row r="33" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
+      <c r="A33" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="104"/>
+      <c r="C33" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="D33" s="106" t="s">
         <v>433</v>
       </c>
-      <c r="E31" s="105" t="s">
+      <c r="E33" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="108"/>
-      <c r="G31" s="106" t="s">
+      <c r="F33" s="108"/>
+      <c r="G33" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="H31" s="105"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-    </row>
-    <row r="32" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B32" s="104"/>
-      <c r="C32" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="D32" s="106" t="s">
-        <v>439</v>
-      </c>
-      <c r="E32" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="108" t="s">
-        <v>287</v>
-      </c>
-      <c r="G32" s="106" t="s">
-        <v>442</v>
-      </c>
-      <c r="H32" s="105"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-    </row>
-    <row r="33" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="109" t="s">
-        <v>432</v>
-      </c>
-      <c r="D33" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="104"/>
-      <c r="G33" s="110" t="s">
-        <v>450</v>
-      </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
       <c r="K33" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
-      <c r="O33" s="104"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
-    </row>
-    <row r="34" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="107"/>
+      <c r="P33" s="107"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+    </row>
+    <row r="34" spans="1:18" s="102" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="104">
         <v>42736</v>
       </c>
       <c r="B34" s="104"/>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="106" t="s">
+        <v>436</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="E34" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" s="105"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="107"/>
+      <c r="P34" s="107"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+    </row>
+    <row r="35" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A35" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="104"/>
+      <c r="C35" s="109" t="s">
         <v>432</v>
       </c>
-      <c r="D34" s="110" t="s">
-        <v>446</v>
-      </c>
-      <c r="E34" s="110" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="104"/>
-      <c r="G34" s="110" t="s">
-        <v>451</v>
-      </c>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="110" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="98"/>
-      <c r="R34" s="98"/>
-    </row>
-    <row r="35" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="104">
-        <v>42736</v>
-      </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="110" t="s">
-        <v>432</v>
-      </c>
       <c r="D35" s="110" t="s">
-        <v>435</v>
-      </c>
-      <c r="E35" s="105" t="s">
-        <v>64</v>
-      </c>
-      <c r="F35" s="104" t="s">
-        <v>436</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E35" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" s="104"/>
       <c r="G35" s="110" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H35" s="104"/>
       <c r="I35" s="104"/>
       <c r="J35" s="104"/>
-      <c r="K35" s="110" t="s">
+      <c r="K35" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="L35" s="98"/>
-      <c r="M35" s="98"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
+      <c r="L35" s="104"/>
+      <c r="M35" s="104"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+    </row>
+    <row r="36" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A36" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="110" t="s">
+        <v>432</v>
+      </c>
+      <c r="D36" s="110" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="104"/>
+      <c r="G36" s="110" t="s">
+        <v>451</v>
+      </c>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" s="98"/>
+      <c r="M36" s="98"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="98"/>
+      <c r="P36" s="98"/>
+      <c r="Q36" s="98"/>
+      <c r="R36" s="98"/>
+    </row>
+    <row r="37" spans="1:18" s="102" customFormat="1" ht="13.25" customHeight="1">
+      <c r="A37" s="104">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="104"/>
+      <c r="C37" s="110" t="s">
+        <v>432</v>
+      </c>
+      <c r="D37" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="104" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>452</v>
+      </c>
+      <c r="H37" s="104"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" s="98"/>
+      <c r="M37" s="98"/>
+      <c r="N37" s="98"/>
+      <c r="O37" s="98"/>
+      <c r="P37" s="98"/>
+      <c r="Q37" s="98"/>
+      <c r="R37" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -21441,22 +21920,22 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.46875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.46875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.46875" customWidth="1"/>
+    <col min="5" max="5" width="18.64453125" customWidth="1"/>
+    <col min="6" max="6" width="57.64453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.3515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.83203125" customWidth="1"/>
+    <col min="10" max="10" width="13.46875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="17.7">
       <c r="A1" s="73" t="s">
         <v>413</v>
       </c>
@@ -21485,7 +21964,7 @@
       <c r="J1" s="55"/>
       <c r="K1" s="74"/>
     </row>
-    <row r="2" spans="1:11" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="126" customHeight="1">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="78" t="s">
@@ -21516,7 +21995,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="81" t="s">
         <v>9</v>
       </c>
@@ -21551,7 +22030,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="14" customHeight="1">
       <c r="A4" s="85">
         <v>43101</v>
       </c>
@@ -21574,7 +22053,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="14" customHeight="1">
       <c r="A5" s="85">
         <v>43101</v>
       </c>
@@ -21597,7 +22076,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="85">
         <v>43101</v>
       </c>
@@ -21620,7 +22099,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="85">
         <v>43101</v>
       </c>
@@ -21646,7 +22125,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="85">
         <v>43101</v>
       </c>
@@ -21675,7 +22154,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="85">
         <v>43101</v>
       </c>
@@ -21698,7 +22177,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="85">
         <v>43101</v>
       </c>
@@ -21721,7 +22200,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="85">
         <v>43101</v>
       </c>
@@ -21747,7 +22226,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="85">
         <v>43101</v>
       </c>
@@ -21784,17 +22263,17 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="17" customWidth="1"/>
-    <col min="3" max="4" width="31.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="28.33203125" style="17" customWidth="1"/>
-    <col min="6" max="10" width="8.83203125" style="17" customWidth="1"/>
-    <col min="11" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.17578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="17" customWidth="1"/>
+    <col min="3" max="4" width="31.64453125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="28.3515625" style="17" customWidth="1"/>
+    <col min="6" max="10" width="8.8203125" style="17" customWidth="1"/>
+    <col min="11" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>120</v>
       </c>
@@ -21814,7 +22293,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="35.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -21836,7 +22315,7 @@
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -21858,7 +22337,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -21878,7 +22357,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -21898,7 +22377,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -21918,7 +22397,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -21938,7 +22417,7 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -21958,7 +22437,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="12.75" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -21978,7 +22457,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="12.75" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -21998,7 +22477,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -22018,7 +22497,7 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -22038,7 +22517,7 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="12.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -22058,7 +22537,7 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="12.75" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -22078,7 +22557,7 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -22115,24 +22594,24 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="31.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.64453125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="31.64453125" style="18" customWidth="1"/>
     <col min="5" max="6" width="22" style="18" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="40.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.3515625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="40.8203125" style="18" customWidth="1"/>
     <col min="9" max="9" width="21" style="18" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="18" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="18" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="145" customWidth="1"/>
-    <col min="13" max="14" width="8.83203125" style="18" customWidth="1"/>
-    <col min="15" max="256" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="30.3515625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="16.3515625" style="18" customWidth="1"/>
+    <col min="12" max="12" width="8.8203125" style="145" customWidth="1"/>
+    <col min="13" max="14" width="8.8203125" style="18" customWidth="1"/>
+    <col min="15" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>139</v>
       </c>
@@ -22156,7 +22635,7 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:14" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="46.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -22194,7 +22673,7 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -22234,7 +22713,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -22266,7 +22745,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="93" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="93" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="111">
         <v>42736</v>
       </c>
@@ -22298,7 +22777,7 @@
       <c r="M5" s="116"/>
       <c r="N5" s="116"/>
     </row>
-    <row r="6" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="13" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -22330,7 +22809,7 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
     </row>
-    <row r="7" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -22362,7 +22841,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1">
       <c r="A8" s="111">
         <v>42736</v>
       </c>
@@ -22394,7 +22873,7 @@
       <c r="M8" s="116"/>
       <c r="N8" s="116"/>
     </row>
-    <row r="9" spans="1:14" s="133" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="133" customFormat="1" ht="13" customHeight="1">
       <c r="A9" s="127">
         <v>42736</v>
       </c>
@@ -22426,7 +22905,7 @@
       <c r="M9" s="132"/>
       <c r="N9" s="132"/>
     </row>
-    <row r="10" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="13" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -22458,7 +22937,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -22490,7 +22969,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="13" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -22522,7 +23001,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="13" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -22554,7 +23033,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="13" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -22586,7 +23065,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="13" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -22618,7 +23097,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="13" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -22650,7 +23129,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="13" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -22684,7 +23163,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="13" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>
@@ -22718,7 +23197,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="13" customHeight="1">
       <c r="A19" s="10">
         <v>42736</v>
       </c>
@@ -22752,7 +23231,7 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="13" customHeight="1">
       <c r="A20" s="10">
         <v>42736</v>
       </c>
@@ -22784,7 +23263,7 @@
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
-    <row r="21" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="13" customHeight="1">
       <c r="A21" s="10">
         <v>42736</v>
       </c>
@@ -22816,7 +23295,7 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
-    <row r="22" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1">
       <c r="A22" s="111">
         <v>42736</v>
       </c>
@@ -22848,7 +23327,7 @@
       <c r="M22" s="116"/>
       <c r="N22" s="116"/>
     </row>
-    <row r="23" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1">
       <c r="A23" s="111">
         <v>42736</v>
       </c>
@@ -22882,7 +23361,7 @@
       <c r="M23" s="116"/>
       <c r="N23" s="116"/>
     </row>
-    <row r="24" spans="1:14" s="144" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="144" customFormat="1" ht="12.75" customHeight="1">
       <c r="A24" s="136">
         <v>42736</v>
       </c>
@@ -22916,7 +23395,7 @@
       <c r="M24" s="142"/>
       <c r="N24" s="142"/>
     </row>
-    <row r="25" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="13" customHeight="1">
       <c r="A25" s="10">
         <v>42736</v>
       </c>
@@ -22948,7 +23427,7 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="13" customHeight="1">
       <c r="A26" s="10">
         <v>42736</v>
       </c>
@@ -22980,7 +23459,7 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="13" customHeight="1">
       <c r="A27" s="10">
         <v>42736</v>
       </c>
@@ -23012,7 +23491,7 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" ht="13" customHeight="1">
       <c r="A28" s="10">
         <v>42736</v>
       </c>
@@ -23044,7 +23523,7 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:14" s="133" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="133" customFormat="1" ht="13" customHeight="1">
       <c r="A29" s="127">
         <v>42736</v>
       </c>
@@ -23076,7 +23555,7 @@
       <c r="M29" s="132"/>
       <c r="N29" s="132"/>
     </row>
-    <row r="30" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="13" customHeight="1">
       <c r="A30" s="10">
         <v>42736</v>
       </c>
@@ -23108,7 +23587,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1">
       <c r="A31" s="111">
         <v>42736</v>
       </c>
@@ -23140,7 +23619,7 @@
       <c r="M31" s="116"/>
       <c r="N31" s="116"/>
     </row>
-    <row r="32" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="13" customHeight="1">
       <c r="A32" s="10">
         <v>42736</v>
       </c>
@@ -23174,7 +23653,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
-    <row r="33" spans="1:14" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="13" customHeight="1">
       <c r="A33" s="10">
         <v>42736</v>
       </c>
@@ -23208,7 +23687,7 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
-    <row r="34" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" s="93" customFormat="1" ht="13" customHeight="1">
       <c r="A34" s="87">
         <v>42736</v>
       </c>
@@ -23240,7 +23719,7 @@
       <c r="M34" s="119"/>
       <c r="N34" s="119"/>
     </row>
-    <row r="37" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="1:14" ht="14" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -23258,21 +23737,21 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11.3515625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="39.46875" style="20" customWidth="1"/>
+    <col min="5" max="5" width="31.64453125" style="20" customWidth="1"/>
     <col min="6" max="6" width="32" style="20" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="20" customWidth="1"/>
-    <col min="9" max="12" width="8.83203125" style="20" customWidth="1"/>
-    <col min="13" max="256" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.64453125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="22.46875" style="20" customWidth="1"/>
+    <col min="9" max="12" width="8.8203125" style="20" customWidth="1"/>
+    <col min="13" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>158</v>
       </c>
@@ -23294,7 +23773,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
-    <row r="2" spans="1:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="57.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -23324,7 +23803,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -23354,7 +23833,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -23378,7 +23857,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -23402,7 +23881,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -23426,7 +23905,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -23450,7 +23929,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="13" customHeight="1">
       <c r="A8" s="10">
         <v>42736</v>
       </c>
@@ -23474,7 +23953,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" ht="13" customHeight="1">
       <c r="A9" s="10">
         <v>42736</v>
       </c>
@@ -23498,7 +23977,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" ht="13" customHeight="1">
       <c r="A10" s="10">
         <v>42736</v>
       </c>
@@ -23522,7 +24001,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -23546,7 +24025,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -23570,7 +24049,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -23611,31 +24090,31 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="21" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="45.5" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="21" customWidth="1"/>
-    <col min="10" max="10" width="36.83203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="21" customWidth="1"/>
-    <col min="12" max="12" width="33.83203125" style="21" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="26.6640625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="29.33203125" style="21" customWidth="1"/>
-    <col min="16" max="16" width="23.6640625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" style="21" customWidth="1"/>
-    <col min="18" max="19" width="18.5" style="21" customWidth="1"/>
-    <col min="20" max="20" width="16.83203125" style="21" customWidth="1"/>
-    <col min="21" max="256" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.17578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="27.8203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="18.64453125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="34.64453125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="45.46875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.64453125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="22.64453125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="25.64453125" style="21" customWidth="1"/>
+    <col min="10" max="10" width="36.8203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="15.17578125" style="21" customWidth="1"/>
+    <col min="12" max="12" width="33.8203125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="17.3515625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="26.64453125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="29.3515625" style="21" customWidth="1"/>
+    <col min="16" max="16" width="23.64453125" style="21" customWidth="1"/>
+    <col min="17" max="17" width="31.17578125" style="21" customWidth="1"/>
+    <col min="18" max="19" width="18.46875" style="21" customWidth="1"/>
+    <col min="20" max="20" width="16.8203125" style="21" customWidth="1"/>
+    <col min="21" max="256" width="8.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>168</v>
       </c>
@@ -23665,7 +24144,7 @@
       <c r="S1" s="7"/>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" spans="1:20" ht="112.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" ht="112.75" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -23727,7 +24206,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -23789,7 +24268,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="10">
         <v>42736</v>
       </c>
@@ -23831,7 +24310,7 @@
       </c>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" ht="13" customHeight="1">
       <c r="A5" s="10">
         <v>42736</v>
       </c>
@@ -23871,7 +24350,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" ht="13" customHeight="1">
       <c r="A6" s="10">
         <v>42736</v>
       </c>
@@ -23913,7 +24392,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" ht="13" customHeight="1">
       <c r="A7" s="10">
         <v>42736</v>
       </c>
@@ -23953,7 +24432,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1">
       <c r="A8" s="104">
         <v>42736</v>
       </c>
@@ -23993,7 +24472,7 @@
       <c r="S8" s="107"/>
       <c r="T8" s="105"/>
     </row>
-    <row r="9" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1">
       <c r="A9" s="104">
         <v>42736</v>
       </c>
@@ -24033,7 +24512,7 @@
       <c r="S9" s="107"/>
       <c r="T9" s="105"/>
     </row>
-    <row r="10" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="102" customFormat="1" ht="13.25" customHeight="1">
       <c r="A10" s="104">
         <v>42736</v>
       </c>
@@ -24073,7 +24552,7 @@
       <c r="S10" s="107"/>
       <c r="T10" s="105"/>
     </row>
-    <row r="11" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" ht="13" customHeight="1">
       <c r="A11" s="10">
         <v>42736</v>
       </c>
@@ -24113,7 +24592,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" ht="13" customHeight="1">
       <c r="A12" s="10">
         <v>42736</v>
       </c>
@@ -24155,7 +24634,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" ht="14" customHeight="1">
       <c r="A13" s="10">
         <v>42736</v>
       </c>
@@ -24199,7 +24678,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" ht="14" customHeight="1">
       <c r="A14" s="10">
         <v>42736</v>
       </c>
@@ -24243,7 +24722,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" ht="14" customHeight="1">
       <c r="A15" s="10">
         <v>42736</v>
       </c>
@@ -24287,7 +24766,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="1:20" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" ht="14" customHeight="1">
       <c r="A16" s="10">
         <v>42736</v>
       </c>
@@ -24331,7 +24810,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>42736</v>
       </c>
@@ -24371,7 +24850,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="12.75" customHeight="1">
       <c r="A18" s="10">
         <v>42736</v>
       </c>

--- a/test/resources/definitionsFiles/fe-automation-definition-v06_collection_view.xlsx
+++ b/test/resources/definitionsFiles/fe-automation-definition-v06_collection_view.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\moj\ccd-case-management-web\test\resources\definitionsFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32EAA6C-00A4-4C3B-ACC4-C6E63CBF16FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85184C64-7C82-4B69-AA5F-3FD6414F6813}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" tabRatio="683" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" tabRatio="807" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="511">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1642,6 +1642,18 @@
   </si>
   <si>
     <t>TextField3="showpage3"</t>
+  </si>
+  <si>
+    <t>Collection of Addresses</t>
+  </si>
+  <si>
+    <t>ConditionalPage4</t>
+  </si>
+  <si>
+    <t>Conditional Page 4</t>
+  </si>
+  <si>
+    <t>TextField3="showpage4"</t>
   </si>
 </sst>
 </file>
@@ -3634,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -6022,6 +6034,59 @@
       <c r="AA46" s="157"/>
       <c r="AB46" s="157"/>
       <c r="AC46" s="157"/>
+    </row>
+    <row r="47" spans="1:29" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A47" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B47" s="155"/>
+      <c r="C47" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="156" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="158" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="159">
+        <v>1</v>
+      </c>
+      <c r="G47" s="156" t="s">
+        <v>346</v>
+      </c>
+      <c r="H47" s="158" t="s">
+        <v>508</v>
+      </c>
+      <c r="I47" s="158" t="s">
+        <v>509</v>
+      </c>
+      <c r="J47" s="160">
+        <v>4</v>
+      </c>
+      <c r="K47" s="157"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="161" t="s">
+        <v>510</v>
+      </c>
+      <c r="N47" s="157"/>
+      <c r="O47" s="156" t="s">
+        <v>195</v>
+      </c>
+      <c r="P47" s="157"/>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157"/>
+      <c r="S47" s="157"/>
+      <c r="T47" s="157"/>
+      <c r="U47" s="157"/>
+      <c r="V47" s="157"/>
+      <c r="W47" s="157"/>
+      <c r="X47" s="157"/>
+      <c r="Y47" s="157"/>
+      <c r="Z47" s="157"/>
+      <c r="AA47" s="157"/>
+      <c r="AB47" s="157"/>
+      <c r="AC47" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -7656,10 +7721,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -8860,6 +8925,29 @@
       <c r="I52" s="157"/>
       <c r="J52" s="157"/>
       <c r="K52" s="157"/>
+    </row>
+    <row r="53" spans="1:11" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A53" s="155">
+        <v>42736</v>
+      </c>
+      <c r="B53" s="155"/>
+      <c r="C53" s="156" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="158" t="s">
+        <v>479</v>
+      </c>
+      <c r="E53" s="154" t="s">
+        <v>271</v>
+      </c>
+      <c r="F53" s="156" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="156"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
@@ -10132,10 +10220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV53"/>
+  <dimension ref="A1:IV54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="13.25" customHeight="1"/>
@@ -20647,6 +20735,278 @@
       <c r="IU53" s="153"/>
       <c r="IV53" s="153"/>
     </row>
+    <row r="54" spans="1:256" s="154" customFormat="1" ht="13.75" customHeight="1">
+      <c r="A54" s="148">
+        <v>42736</v>
+      </c>
+      <c r="B54" s="149"/>
+      <c r="C54" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D54" s="151" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" s="151" t="s">
+        <v>507</v>
+      </c>
+      <c r="F54" s="152"/>
+      <c r="G54" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="H54" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="152"/>
+      <c r="J54" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="152"/>
+      <c r="L54" s="152"/>
+      <c r="M54" s="152"/>
+      <c r="N54" s="152"/>
+      <c r="O54" s="152"/>
+      <c r="P54" s="152"/>
+      <c r="Q54" s="152"/>
+      <c r="R54" s="153"/>
+      <c r="S54" s="153"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="153"/>
+      <c r="V54" s="153"/>
+      <c r="W54" s="153"/>
+      <c r="X54" s="153"/>
+      <c r="Y54" s="153"/>
+      <c r="Z54" s="153"/>
+      <c r="AA54" s="153"/>
+      <c r="AB54" s="153"/>
+      <c r="AC54" s="153"/>
+      <c r="AD54" s="153"/>
+      <c r="AE54" s="153"/>
+      <c r="AF54" s="153"/>
+      <c r="AG54" s="153"/>
+      <c r="AH54" s="153"/>
+      <c r="AI54" s="153"/>
+      <c r="AJ54" s="153"/>
+      <c r="AK54" s="153"/>
+      <c r="AL54" s="153"/>
+      <c r="AM54" s="153"/>
+      <c r="AN54" s="153"/>
+      <c r="AO54" s="153"/>
+      <c r="AP54" s="153"/>
+      <c r="AQ54" s="153"/>
+      <c r="AR54" s="153"/>
+      <c r="AS54" s="153"/>
+      <c r="AT54" s="153"/>
+      <c r="AU54" s="153"/>
+      <c r="AV54" s="153"/>
+      <c r="AW54" s="153"/>
+      <c r="AX54" s="153"/>
+      <c r="AY54" s="153"/>
+      <c r="AZ54" s="153"/>
+      <c r="BA54" s="153"/>
+      <c r="BB54" s="153"/>
+      <c r="BC54" s="153"/>
+      <c r="BD54" s="153"/>
+      <c r="BE54" s="153"/>
+      <c r="BF54" s="153"/>
+      <c r="BG54" s="153"/>
+      <c r="BH54" s="153"/>
+      <c r="BI54" s="153"/>
+      <c r="BJ54" s="153"/>
+      <c r="BK54" s="153"/>
+      <c r="BL54" s="153"/>
+      <c r="BM54" s="153"/>
+      <c r="BN54" s="153"/>
+      <c r="BO54" s="153"/>
+      <c r="BP54" s="153"/>
+      <c r="BQ54" s="153"/>
+      <c r="BR54" s="153"/>
+      <c r="BS54" s="153"/>
+      <c r="BT54" s="153"/>
+      <c r="BU54" s="153"/>
+      <c r="BV54" s="153"/>
+      <c r="BW54" s="153"/>
+      <c r="BX54" s="153"/>
+      <c r="BY54" s="153"/>
+      <c r="BZ54" s="153"/>
+      <c r="CA54" s="153"/>
+      <c r="CB54" s="153"/>
+      <c r="CC54" s="153"/>
+      <c r="CD54" s="153"/>
+      <c r="CE54" s="153"/>
+      <c r="CF54" s="153"/>
+      <c r="CG54" s="153"/>
+      <c r="CH54" s="153"/>
+      <c r="CI54" s="153"/>
+      <c r="CJ54" s="153"/>
+      <c r="CK54" s="153"/>
+      <c r="CL54" s="153"/>
+      <c r="CM54" s="153"/>
+      <c r="CN54" s="153"/>
+      <c r="CO54" s="153"/>
+      <c r="CP54" s="153"/>
+      <c r="CQ54" s="153"/>
+      <c r="CR54" s="153"/>
+      <c r="CS54" s="153"/>
+      <c r="CT54" s="153"/>
+      <c r="CU54" s="153"/>
+      <c r="CV54" s="153"/>
+      <c r="CW54" s="153"/>
+      <c r="CX54" s="153"/>
+      <c r="CY54" s="153"/>
+      <c r="CZ54" s="153"/>
+      <c r="DA54" s="153"/>
+      <c r="DB54" s="153"/>
+      <c r="DC54" s="153"/>
+      <c r="DD54" s="153"/>
+      <c r="DE54" s="153"/>
+      <c r="DF54" s="153"/>
+      <c r="DG54" s="153"/>
+      <c r="DH54" s="153"/>
+      <c r="DI54" s="153"/>
+      <c r="DJ54" s="153"/>
+      <c r="DK54" s="153"/>
+      <c r="DL54" s="153"/>
+      <c r="DM54" s="153"/>
+      <c r="DN54" s="153"/>
+      <c r="DO54" s="153"/>
+      <c r="DP54" s="153"/>
+      <c r="DQ54" s="153"/>
+      <c r="DR54" s="153"/>
+      <c r="DS54" s="153"/>
+      <c r="DT54" s="153"/>
+      <c r="DU54" s="153"/>
+      <c r="DV54" s="153"/>
+      <c r="DW54" s="153"/>
+      <c r="DX54" s="153"/>
+      <c r="DY54" s="153"/>
+      <c r="DZ54" s="153"/>
+      <c r="EA54" s="153"/>
+      <c r="EB54" s="153"/>
+      <c r="EC54" s="153"/>
+      <c r="ED54" s="153"/>
+      <c r="EE54" s="153"/>
+      <c r="EF54" s="153"/>
+      <c r="EG54" s="153"/>
+      <c r="EH54" s="153"/>
+      <c r="EI54" s="153"/>
+      <c r="EJ54" s="153"/>
+      <c r="EK54" s="153"/>
+      <c r="EL54" s="153"/>
+      <c r="EM54" s="153"/>
+      <c r="EN54" s="153"/>
+      <c r="EO54" s="153"/>
+      <c r="EP54" s="153"/>
+      <c r="EQ54" s="153"/>
+      <c r="ER54" s="153"/>
+      <c r="ES54" s="153"/>
+      <c r="ET54" s="153"/>
+      <c r="EU54" s="153"/>
+      <c r="EV54" s="153"/>
+      <c r="EW54" s="153"/>
+      <c r="EX54" s="153"/>
+      <c r="EY54" s="153"/>
+      <c r="EZ54" s="153"/>
+      <c r="FA54" s="153"/>
+      <c r="FB54" s="153"/>
+      <c r="FC54" s="153"/>
+      <c r="FD54" s="153"/>
+      <c r="FE54" s="153"/>
+      <c r="FF54" s="153"/>
+      <c r="FG54" s="153"/>
+      <c r="FH54" s="153"/>
+      <c r="FI54" s="153"/>
+      <c r="FJ54" s="153"/>
+      <c r="FK54" s="153"/>
+      <c r="FL54" s="153"/>
+      <c r="FM54" s="153"/>
+      <c r="FN54" s="153"/>
+      <c r="FO54" s="153"/>
+      <c r="FP54" s="153"/>
+      <c r="FQ54" s="153"/>
+      <c r="FR54" s="153"/>
+      <c r="FS54" s="153"/>
+      <c r="FT54" s="153"/>
+      <c r="FU54" s="153"/>
+      <c r="FV54" s="153"/>
+      <c r="FW54" s="153"/>
+      <c r="FX54" s="153"/>
+      <c r="FY54" s="153"/>
+      <c r="FZ54" s="153"/>
+      <c r="GA54" s="153"/>
+      <c r="GB54" s="153"/>
+      <c r="GC54" s="153"/>
+      <c r="GD54" s="153"/>
+      <c r="GE54" s="153"/>
+      <c r="GF54" s="153"/>
+      <c r="GG54" s="153"/>
+      <c r="GH54" s="153"/>
+      <c r="GI54" s="153"/>
+      <c r="GJ54" s="153"/>
+      <c r="GK54" s="153"/>
+      <c r="GL54" s="153"/>
+      <c r="GM54" s="153"/>
+      <c r="GN54" s="153"/>
+      <c r="GO54" s="153"/>
+      <c r="GP54" s="153"/>
+      <c r="GQ54" s="153"/>
+      <c r="GR54" s="153"/>
+      <c r="GS54" s="153"/>
+      <c r="GT54" s="153"/>
+      <c r="GU54" s="153"/>
+      <c r="GV54" s="153"/>
+      <c r="GW54" s="153"/>
+      <c r="GX54" s="153"/>
+      <c r="GY54" s="153"/>
+      <c r="GZ54" s="153"/>
+      <c r="HA54" s="153"/>
+      <c r="HB54" s="153"/>
+      <c r="HC54" s="153"/>
+      <c r="HD54" s="153"/>
+      <c r="HE54" s="153"/>
+      <c r="HF54" s="153"/>
+      <c r="HG54" s="153"/>
+      <c r="HH54" s="153"/>
+      <c r="HI54" s="153"/>
+      <c r="HJ54" s="153"/>
+      <c r="HK54" s="153"/>
+      <c r="HL54" s="153"/>
+      <c r="HM54" s="153"/>
+      <c r="HN54" s="153"/>
+      <c r="HO54" s="153"/>
+      <c r="HP54" s="153"/>
+      <c r="HQ54" s="153"/>
+      <c r="HR54" s="153"/>
+      <c r="HS54" s="153"/>
+      <c r="HT54" s="153"/>
+      <c r="HU54" s="153"/>
+      <c r="HV54" s="153"/>
+      <c r="HW54" s="153"/>
+      <c r="HX54" s="153"/>
+      <c r="HY54" s="153"/>
+      <c r="HZ54" s="153"/>
+      <c r="IA54" s="153"/>
+      <c r="IB54" s="153"/>
+      <c r="IC54" s="153"/>
+      <c r="ID54" s="153"/>
+      <c r="IE54" s="153"/>
+      <c r="IF54" s="153"/>
+      <c r="IG54" s="153"/>
+      <c r="IH54" s="153"/>
+      <c r="II54" s="153"/>
+      <c r="IJ54" s="153"/>
+      <c r="IK54" s="153"/>
+      <c r="IL54" s="153"/>
+      <c r="IM54" s="153"/>
+      <c r="IN54" s="153"/>
+      <c r="IO54" s="153"/>
+      <c r="IP54" s="153"/>
+      <c r="IQ54" s="153"/>
+      <c r="IR54" s="153"/>
+      <c r="IS54" s="153"/>
+      <c r="IT54" s="153"/>
+      <c r="IU54" s="153"/>
+      <c r="IV54" s="153"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -20660,7 +21020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
